--- a/Code/Results/Cases/Case_5_105/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_105/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9933393966732244</v>
+        <v>1.043260161776686</v>
       </c>
       <c r="D2">
-        <v>1.013843604245741</v>
+        <v>1.046428770128438</v>
       </c>
       <c r="E2">
-        <v>1.000158791209903</v>
+        <v>1.041230987379512</v>
       </c>
       <c r="F2">
-        <v>1.013685308026618</v>
+        <v>1.054716789940024</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040007782906313</v>
+        <v>1.035695167092103</v>
       </c>
       <c r="J2">
-        <v>1.015721166842254</v>
+        <v>1.048331565347354</v>
       </c>
       <c r="K2">
-        <v>1.025113386716673</v>
+        <v>1.049194232275643</v>
       </c>
       <c r="L2">
-        <v>1.011615914261849</v>
+        <v>1.044011088834224</v>
       </c>
       <c r="M2">
-        <v>1.024957221167315</v>
+        <v>1.057459232750838</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000938454416004</v>
+        <v>1.044776125857301</v>
       </c>
       <c r="D3">
-        <v>1.019537717076737</v>
+        <v>1.047574752030882</v>
       </c>
       <c r="E3">
-        <v>1.006484351828637</v>
+        <v>1.042538705071644</v>
       </c>
       <c r="F3">
-        <v>1.020350636261022</v>
+        <v>1.056094196138116</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041966788651481</v>
+        <v>1.035997814210862</v>
       </c>
       <c r="J3">
-        <v>1.021403568869977</v>
+        <v>1.049491494871726</v>
       </c>
       <c r="K3">
-        <v>1.029926566403606</v>
+        <v>1.050150986211601</v>
       </c>
       <c r="L3">
-        <v>1.017034931072164</v>
+        <v>1.045128086639669</v>
       </c>
       <c r="M3">
-        <v>1.030729583719025</v>
+        <v>1.058648496899758</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005708126541278</v>
+        <v>1.045755743955566</v>
       </c>
       <c r="D4">
-        <v>1.023114533181099</v>
+        <v>1.048314926298311</v>
       </c>
       <c r="E4">
-        <v>1.01046119045068</v>
+        <v>1.043383953425449</v>
       </c>
       <c r="F4">
-        <v>1.02454110066867</v>
+        <v>1.056984470582771</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043183587463077</v>
+        <v>1.036191685584828</v>
       </c>
       <c r="J4">
-        <v>1.024966936402319</v>
+        <v>1.050240359924661</v>
       </c>
       <c r="K4">
-        <v>1.032941766100577</v>
+        <v>1.050768141607328</v>
       </c>
       <c r="L4">
-        <v>1.020434976657155</v>
+        <v>1.045849387169564</v>
       </c>
       <c r="M4">
-        <v>1.034352090893239</v>
+        <v>1.059416500872545</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007680004165242</v>
+        <v>1.046167268682975</v>
       </c>
       <c r="D5">
-        <v>1.024593803452703</v>
+        <v>1.048625776260939</v>
       </c>
       <c r="E5">
-        <v>1.012106751227984</v>
+        <v>1.043739078018836</v>
       </c>
       <c r="F5">
-        <v>1.026275049552639</v>
+        <v>1.057358508280055</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043683491558349</v>
+        <v>1.036272721084111</v>
       </c>
       <c r="J5">
-        <v>1.026439236802222</v>
+        <v>1.050554784244984</v>
       </c>
       <c r="K5">
-        <v>1.034186801582943</v>
+        <v>1.051027136324884</v>
       </c>
       <c r="L5">
-        <v>1.021840229596842</v>
+        <v>1.046152274529214</v>
       </c>
       <c r="M5">
-        <v>1.035849454556573</v>
+        <v>1.0597390086726</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008009193858738</v>
+        <v>1.046236347723036</v>
       </c>
       <c r="D6">
-        <v>1.024840784438754</v>
+        <v>1.048677950744643</v>
       </c>
       <c r="E6">
-        <v>1.012381547660469</v>
+        <v>1.043798692384659</v>
       </c>
       <c r="F6">
-        <v>1.026564605406404</v>
+        <v>1.057421297314224</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043766759663386</v>
+        <v>1.036286299901194</v>
       </c>
       <c r="J6">
-        <v>1.026684972772181</v>
+        <v>1.050607554254351</v>
       </c>
       <c r="K6">
-        <v>1.034394559126031</v>
+        <v>1.051070595977688</v>
       </c>
       <c r="L6">
-        <v>1.022074800177955</v>
+        <v>1.046203110422392</v>
       </c>
       <c r="M6">
-        <v>1.036099409968879</v>
+        <v>1.059793138125191</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005734603162743</v>
+        <v>1.04576124396519</v>
       </c>
       <c r="D7">
-        <v>1.023134393526527</v>
+        <v>1.04831908113977</v>
       </c>
       <c r="E7">
-        <v>1.010483279944981</v>
+        <v>1.04338869946682</v>
       </c>
       <c r="F7">
-        <v>1.024564376700248</v>
+        <v>1.056989469404074</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043190312272809</v>
+        <v>1.036192770222227</v>
       </c>
       <c r="J7">
-        <v>1.024986708675939</v>
+        <v>1.050244562837297</v>
       </c>
       <c r="K7">
-        <v>1.03295848942828</v>
+        <v>1.050771604099502</v>
       </c>
       <c r="L7">
-        <v>1.020453846811728</v>
+        <v>1.045853435724151</v>
       </c>
       <c r="M7">
-        <v>1.034372197300091</v>
+        <v>1.059420811650039</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9959393201992264</v>
+        <v>1.043772765054363</v>
       </c>
       <c r="D8">
-        <v>1.015791096184313</v>
+        <v>1.046816342888007</v>
       </c>
       <c r="E8">
-        <v>1.002321565963691</v>
+        <v>1.041673133030759</v>
       </c>
       <c r="F8">
-        <v>1.015964242299058</v>
+        <v>1.055182501138211</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040680689167298</v>
+        <v>1.035797855204748</v>
       </c>
       <c r="J8">
-        <v>1.01766597347302</v>
+        <v>1.048723921447507</v>
       </c>
       <c r="K8">
-        <v>1.026761332478407</v>
+        <v>1.049517973595136</v>
       </c>
       <c r="L8">
-        <v>1.013470181729021</v>
+        <v>1.044388891197042</v>
       </c>
       <c r="M8">
-        <v>1.026932224149897</v>
+        <v>1.057861469891345</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9774496690884684</v>
+        <v>1.040258430923222</v>
       </c>
       <c r="D9">
-        <v>1.001959558256001</v>
+        <v>1.044157762431225</v>
       </c>
       <c r="E9">
-        <v>0.9869736576315501</v>
+        <v>1.038642700955888</v>
       </c>
       <c r="F9">
-        <v>0.9997926105265923</v>
+        <v>1.051990485707187</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035843083842334</v>
+        <v>1.035086870374437</v>
       </c>
       <c r="J9">
-        <v>1.003824663301611</v>
+        <v>1.046031198798408</v>
       </c>
       <c r="K9">
-        <v>1.015020922798167</v>
+        <v>1.047293956184707</v>
       </c>
       <c r="L9">
-        <v>1.000281673924158</v>
+        <v>1.041796681934694</v>
       </c>
       <c r="M9">
-        <v>1.012889053376636</v>
+        <v>1.05510176787364</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9641385931120932</v>
+        <v>1.037908096796549</v>
       </c>
       <c r="D10">
-        <v>0.9920331178263144</v>
+        <v>1.042377985299029</v>
       </c>
       <c r="E10">
-        <v>0.9759727374298821</v>
+        <v>1.036617105066969</v>
       </c>
       <c r="F10">
-        <v>0.9882027012319483</v>
+        <v>1.049856805095536</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032297464838355</v>
+        <v>1.034602631456029</v>
       </c>
       <c r="J10">
-        <v>0.9938509983455449</v>
+        <v>1.044226867822962</v>
       </c>
       <c r="K10">
-        <v>1.006547722249926</v>
+        <v>1.045800949793096</v>
       </c>
       <c r="L10">
-        <v>0.99078979934893</v>
+        <v>1.04006050024566</v>
       </c>
       <c r="M10">
-        <v>1.002788277319755</v>
+        <v>1.053253614676645</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9580993708185715</v>
+        <v>1.036888506212694</v>
       </c>
       <c r="D11">
-        <v>0.9875397222633017</v>
+        <v>1.041605504495641</v>
       </c>
       <c r="E11">
-        <v>0.9709953718523322</v>
+        <v>1.035738663799029</v>
       </c>
       <c r="F11">
-        <v>0.9829594377046377</v>
+        <v>1.048931473296448</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030675281824793</v>
+        <v>1.034390496916137</v>
       </c>
       <c r="J11">
-        <v>0.9893254752769775</v>
+        <v>1.043443319255452</v>
       </c>
       <c r="K11">
-        <v>1.002700509919296</v>
+        <v>1.045151951151662</v>
       </c>
       <c r="L11">
-        <v>0.9864858161489466</v>
+        <v>1.039306736441617</v>
       </c>
       <c r="M11">
-        <v>0.9982100316130723</v>
+        <v>1.052451290549655</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9558105921760987</v>
+        <v>1.036509493311695</v>
       </c>
       <c r="D12">
-        <v>0.9858385980570771</v>
+        <v>1.041318290781312</v>
       </c>
       <c r="E12">
-        <v>0.9691113054279854</v>
+        <v>1.035412162834609</v>
       </c>
       <c r="F12">
-        <v>0.9809748351928589</v>
+        <v>1.048587541471989</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030058598941167</v>
+        <v>1.034311329702885</v>
       </c>
       <c r="J12">
-        <v>0.9876104563719806</v>
+        <v>1.043151928106745</v>
       </c>
       <c r="K12">
-        <v>1.001242231979494</v>
+        <v>1.044910500682838</v>
       </c>
       <c r="L12">
-        <v>0.9848552151503028</v>
+        <v>1.039026450522923</v>
       </c>
       <c r="M12">
-        <v>0.9964758352730044</v>
+        <v>1.052152955579729</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9563036770495785</v>
+        <v>1.036590806205341</v>
       </c>
       <c r="D13">
-        <v>0.9862049948161037</v>
+        <v>1.041379911857991</v>
       </c>
       <c r="E13">
-        <v>0.9695170939503214</v>
+        <v>1.035482207955182</v>
       </c>
       <c r="F13">
-        <v>0.9814022715348445</v>
+        <v>1.048661326191789</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030191537867358</v>
+        <v>1.03432832816017</v>
       </c>
       <c r="J13">
-        <v>0.9879799260170212</v>
+        <v>1.043214448275358</v>
       </c>
       <c r="K13">
-        <v>1.001556404611193</v>
+        <v>1.044962310067075</v>
       </c>
       <c r="L13">
-        <v>0.9852064772706314</v>
+        <v>1.039086586681659</v>
       </c>
       <c r="M13">
-        <v>0.9968493991137299</v>
+        <v>1.05221696384837</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.957911134852274</v>
+        <v>1.036857182888417</v>
       </c>
       <c r="D14">
-        <v>0.98739977841523</v>
+        <v>1.041581769064319</v>
       </c>
       <c r="E14">
-        <v>0.9708403729802326</v>
+        <v>1.035711679425209</v>
       </c>
       <c r="F14">
-        <v>0.9827961654491805</v>
+        <v>1.048903048361708</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030624601646629</v>
+        <v>1.034383960509682</v>
       </c>
       <c r="J14">
-        <v>0.9891844242081882</v>
+        <v>1.04341923987534</v>
       </c>
       <c r="K14">
-        <v>1.002580580424394</v>
+        <v>1.045132000634342</v>
       </c>
       <c r="L14">
-        <v>0.9863516985010328</v>
+        <v>1.039283574167228</v>
       </c>
       <c r="M14">
-        <v>0.9980673866723061</v>
+        <v>1.052426636572437</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9588953734984539</v>
+        <v>1.037021267447815</v>
       </c>
       <c r="D15">
-        <v>0.9881315848406985</v>
+        <v>1.041706102684561</v>
       </c>
       <c r="E15">
-        <v>0.9716509173322078</v>
+        <v>1.035853036506353</v>
       </c>
       <c r="F15">
-        <v>0.983649979036865</v>
+        <v>1.04905195169026</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030889519298428</v>
+        <v>1.034418188214209</v>
       </c>
       <c r="J15">
-        <v>0.9899219495049829</v>
+        <v>1.043545372650118</v>
       </c>
       <c r="K15">
-        <v>1.00320765318377</v>
+        <v>1.045236501618964</v>
       </c>
       <c r="L15">
-        <v>0.987052989348906</v>
+        <v>1.03940490412691</v>
       </c>
       <c r="M15">
-        <v>0.9988132789479778</v>
+        <v>1.052555780785692</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9645332509414317</v>
+        <v>1.037975723276682</v>
       </c>
       <c r="D16">
-        <v>0.9923269906906095</v>
+        <v>1.0424292133597</v>
       </c>
       <c r="E16">
-        <v>0.9762983057167642</v>
+        <v>1.036675375414057</v>
       </c>
       <c r="F16">
-        <v>0.9885456760570576</v>
+        <v>1.049918185514573</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032403204211468</v>
+        <v>1.034616658211118</v>
       </c>
       <c r="J16">
-        <v>0.9941467404583106</v>
+        <v>1.044278821156249</v>
       </c>
       <c r="K16">
-        <v>1.006799089904777</v>
+        <v>1.045843968211426</v>
       </c>
       <c r="L16">
-        <v>0.9910711261824052</v>
+        <v>1.040110482706685</v>
       </c>
       <c r="M16">
-        <v>1.003087571984636</v>
+        <v>1.053306818311588</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9679932365959327</v>
+        <v>1.038573918395484</v>
       </c>
       <c r="D17">
-        <v>0.9949045704142568</v>
+        <v>1.042882308832459</v>
       </c>
       <c r="E17">
-        <v>0.9791541516355277</v>
+        <v>1.037190842099732</v>
       </c>
       <c r="F17">
-        <v>0.9915542792501667</v>
+        <v>1.050461162291121</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033328716022396</v>
+        <v>1.034740494256976</v>
       </c>
       <c r="J17">
-        <v>0.9967394901023294</v>
+        <v>1.044738283969022</v>
       </c>
       <c r="K17">
-        <v>1.009002534737763</v>
+        <v>1.046224338333319</v>
       </c>
       <c r="L17">
-        <v>0.9935378304378947</v>
+        <v>1.040552537556155</v>
       </c>
       <c r="M17">
-        <v>1.005712030990585</v>
+        <v>1.053777367905091</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9699851213572079</v>
+        <v>1.038922654671969</v>
       </c>
       <c r="D18">
-        <v>0.99638940110042</v>
+        <v>1.043146416002676</v>
       </c>
       <c r="E18">
-        <v>0.9807995117843293</v>
+        <v>1.037491375791688</v>
       </c>
       <c r="F18">
-        <v>0.9932877022903941</v>
+        <v>1.050777733569847</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033860245928315</v>
+        <v>1.034812488907735</v>
       </c>
       <c r="J18">
-        <v>0.998232057863407</v>
+        <v>1.045006063114694</v>
       </c>
       <c r="K18">
-        <v>1.010270750594677</v>
+        <v>1.046445959296409</v>
       </c>
       <c r="L18">
-        <v>0.9949581108566301</v>
+        <v>1.040810189500827</v>
       </c>
       <c r="M18">
-        <v>1.007223313423499</v>
+        <v>1.054051633038856</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9706599646063454</v>
+        <v>1.039041534333226</v>
       </c>
       <c r="D19">
-        <v>0.9968926081348556</v>
+        <v>1.043236440082558</v>
       </c>
       <c r="E19">
-        <v>0.9813571637512246</v>
+        <v>1.037593828283781</v>
       </c>
       <c r="F19">
-        <v>0.9938752093079385</v>
+        <v>1.050885653015753</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034040105505859</v>
+        <v>1.034836997115402</v>
       </c>
       <c r="J19">
-        <v>0.9987377202962922</v>
+        <v>1.045097332148983</v>
       </c>
       <c r="K19">
-        <v>1.010700362925206</v>
+        <v>1.046521485346587</v>
       </c>
       <c r="L19">
-        <v>0.9954393290256366</v>
+        <v>1.040898009915098</v>
       </c>
       <c r="M19">
-        <v>1.007735392658329</v>
+        <v>1.054145116886217</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9676247579847138</v>
+        <v>1.038509756488727</v>
       </c>
       <c r="D20">
-        <v>0.9946299660144952</v>
+        <v>1.042833714196483</v>
       </c>
       <c r="E20">
-        <v>0.9788498783237308</v>
+        <v>1.037135550825975</v>
       </c>
       <c r="F20">
-        <v>0.9912337248200486</v>
+        <v>1.05040292033456</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033230283754067</v>
+        <v>1.034727232331331</v>
       </c>
       <c r="J20">
-        <v>0.9964633744468492</v>
+        <v>1.044689010527073</v>
       </c>
       <c r="K20">
-        <v>1.008767902831962</v>
+        <v>1.046183553339896</v>
       </c>
       <c r="L20">
-        <v>0.9932751094791622</v>
+        <v>1.040505129072631</v>
       </c>
       <c r="M20">
-        <v>1.00543249017006</v>
+        <v>1.053726902962927</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9574390721295238</v>
+        <v>1.036778749716053</v>
       </c>
       <c r="D21">
-        <v>0.9870488538878337</v>
+        <v>1.041522334922031</v>
       </c>
       <c r="E21">
-        <v>0.9704517005502112</v>
+        <v>1.035644111613808</v>
       </c>
       <c r="F21">
-        <v>0.9823867487432703</v>
+        <v>1.048831873402676</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030497474630928</v>
+        <v>1.034367588427152</v>
       </c>
       <c r="J21">
-        <v>0.9888306949378366</v>
+        <v>1.043358943466767</v>
       </c>
       <c r="K21">
-        <v>1.00227981519879</v>
+        <v>1.045082041620507</v>
       </c>
       <c r="L21">
-        <v>0.9860153644357958</v>
+        <v>1.039225574717338</v>
       </c>
       <c r="M21">
-        <v>0.9977096733878783</v>
+        <v>1.052364901957234</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9507689230597938</v>
+        <v>1.035688705641418</v>
       </c>
       <c r="D22">
-        <v>0.9820950700949836</v>
+        <v>1.040696196176043</v>
       </c>
       <c r="E22">
-        <v>0.9649656102472682</v>
+        <v>1.034705173374244</v>
       </c>
       <c r="F22">
-        <v>0.9766081604358746</v>
+        <v>1.047842803657764</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028696842101658</v>
+        <v>1.034139318521245</v>
       </c>
       <c r="J22">
-        <v>0.983833014157058</v>
+        <v>1.042520670499307</v>
       </c>
       <c r="K22">
-        <v>0.9980297720473096</v>
+        <v>1.044387256137385</v>
       </c>
       <c r="L22">
-        <v>0.9812645883537765</v>
+        <v>1.038419303394552</v>
       </c>
       <c r="M22">
-        <v>0.9926577066635258</v>
+        <v>1.051506726034815</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9543316573424883</v>
+        <v>1.036266721994798</v>
       </c>
       <c r="D23">
-        <v>0.9847399333003536</v>
+        <v>1.041134303662949</v>
       </c>
       <c r="E23">
-        <v>0.9678945562156456</v>
+        <v>1.035203039362897</v>
       </c>
       <c r="F23">
-        <v>0.9796931941285912</v>
+        <v>1.048367252871477</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029659601279136</v>
+        <v>1.034260532958473</v>
       </c>
       <c r="J23">
-        <v>0.9865023137269251</v>
+        <v>1.042965247311842</v>
       </c>
       <c r="K23">
-        <v>1.000299899486799</v>
+        <v>1.044755787413525</v>
       </c>
       <c r="L23">
-        <v>0.9838017515093929</v>
+        <v>1.038846892419302</v>
       </c>
       <c r="M23">
-        <v>0.9953555355779401</v>
+        <v>1.051961837092159</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9677913384710185</v>
+        <v>1.03853874905152</v>
       </c>
       <c r="D24">
-        <v>0.9947541052848607</v>
+        <v>1.0428556725641</v>
       </c>
       <c r="E24">
-        <v>0.9789874291676227</v>
+        <v>1.037160534972424</v>
       </c>
       <c r="F24">
-        <v>0.9913786355975434</v>
+        <v>1.050429237794106</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033274786645894</v>
+        <v>1.03473322555654</v>
       </c>
       <c r="J24">
-        <v>0.9965882000074174</v>
+        <v>1.044711275747579</v>
       </c>
       <c r="K24">
-        <v>1.008873975293</v>
+        <v>1.046201983072373</v>
       </c>
       <c r="L24">
-        <v>0.9933938787569679</v>
+        <v>1.040526551516601</v>
       </c>
       <c r="M24">
-        <v>1.00555886274241</v>
+        <v>1.05374970651162</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9823904905357315</v>
+        <v>1.041168248390039</v>
       </c>
       <c r="D25">
-        <v>1.005651172979315</v>
+        <v>1.044846350533813</v>
       </c>
       <c r="E25">
-        <v>0.991067390983237</v>
+        <v>1.039427050552589</v>
       </c>
       <c r="F25">
-        <v>1.004105884349798</v>
+        <v>1.052816671496796</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037146901086737</v>
+        <v>1.03527247602607</v>
       </c>
       <c r="J25">
-        <v>1.007525373565798</v>
+        <v>1.046728925872744</v>
       </c>
       <c r="K25">
-        <v>1.018162390644966</v>
+        <v>1.047870718495767</v>
       </c>
       <c r="L25">
-        <v>1.003805975194318</v>
+        <v>1.042468224506277</v>
       </c>
       <c r="M25">
-        <v>1.016640794380325</v>
+        <v>1.055816665287792</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_105/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_105/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043260161776686</v>
+        <v>0.9933393966732239</v>
       </c>
       <c r="D2">
-        <v>1.046428770128438</v>
+        <v>1.013843604245741</v>
       </c>
       <c r="E2">
-        <v>1.041230987379512</v>
+        <v>1.000158791209903</v>
       </c>
       <c r="F2">
-        <v>1.054716789940024</v>
+        <v>1.013685308026618</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035695167092103</v>
+        <v>1.040007782906313</v>
       </c>
       <c r="J2">
-        <v>1.048331565347354</v>
+        <v>1.015721166842254</v>
       </c>
       <c r="K2">
-        <v>1.049194232275643</v>
+        <v>1.025113386716673</v>
       </c>
       <c r="L2">
-        <v>1.044011088834224</v>
+        <v>1.011615914261849</v>
       </c>
       <c r="M2">
-        <v>1.057459232750838</v>
+        <v>1.024957221167315</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044776125857301</v>
+        <v>1.000938454416003</v>
       </c>
       <c r="D3">
-        <v>1.047574752030882</v>
+        <v>1.019537717076736</v>
       </c>
       <c r="E3">
-        <v>1.042538705071644</v>
+        <v>1.006484351828636</v>
       </c>
       <c r="F3">
-        <v>1.056094196138116</v>
+        <v>1.020350636261021</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035997814210862</v>
+        <v>1.041966788651481</v>
       </c>
       <c r="J3">
-        <v>1.049491494871726</v>
+        <v>1.021403568869976</v>
       </c>
       <c r="K3">
-        <v>1.050150986211601</v>
+        <v>1.029926566403605</v>
       </c>
       <c r="L3">
-        <v>1.045128086639669</v>
+        <v>1.017034931072163</v>
       </c>
       <c r="M3">
-        <v>1.058648496899758</v>
+        <v>1.030729583719024</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045755743955566</v>
+        <v>1.005708126541279</v>
       </c>
       <c r="D4">
-        <v>1.048314926298311</v>
+        <v>1.023114533181101</v>
       </c>
       <c r="E4">
-        <v>1.043383953425449</v>
+        <v>1.010461190450682</v>
       </c>
       <c r="F4">
-        <v>1.056984470582771</v>
+        <v>1.024541100668671</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036191685584828</v>
+        <v>1.043183587463077</v>
       </c>
       <c r="J4">
-        <v>1.050240359924661</v>
+        <v>1.024966936402321</v>
       </c>
       <c r="K4">
-        <v>1.050768141607328</v>
+        <v>1.032941766100578</v>
       </c>
       <c r="L4">
-        <v>1.045849387169564</v>
+        <v>1.020434976657156</v>
       </c>
       <c r="M4">
-        <v>1.059416500872545</v>
+        <v>1.03435209089324</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046167268682975</v>
+        <v>1.007680004165239</v>
       </c>
       <c r="D5">
-        <v>1.048625776260939</v>
+        <v>1.0245938034527</v>
       </c>
       <c r="E5">
-        <v>1.043739078018836</v>
+        <v>1.012106751227982</v>
       </c>
       <c r="F5">
-        <v>1.057358508280055</v>
+        <v>1.026275049552637</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036272721084111</v>
+        <v>1.043683491558348</v>
       </c>
       <c r="J5">
-        <v>1.050554784244984</v>
+        <v>1.026439236802219</v>
       </c>
       <c r="K5">
-        <v>1.051027136324884</v>
+        <v>1.034186801582941</v>
       </c>
       <c r="L5">
-        <v>1.046152274529214</v>
+        <v>1.021840229596839</v>
       </c>
       <c r="M5">
-        <v>1.0597390086726</v>
+        <v>1.03584945455657</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046236347723036</v>
+        <v>1.008009193858737</v>
       </c>
       <c r="D6">
-        <v>1.048677950744643</v>
+        <v>1.024840784438753</v>
       </c>
       <c r="E6">
-        <v>1.043798692384659</v>
+        <v>1.012381547660468</v>
       </c>
       <c r="F6">
-        <v>1.057421297314224</v>
+        <v>1.026564605406403</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036286299901194</v>
+        <v>1.043766759663386</v>
       </c>
       <c r="J6">
-        <v>1.050607554254351</v>
+        <v>1.02668497277218</v>
       </c>
       <c r="K6">
-        <v>1.051070595977688</v>
+        <v>1.034394559126031</v>
       </c>
       <c r="L6">
-        <v>1.046203110422392</v>
+        <v>1.022074800177954</v>
       </c>
       <c r="M6">
-        <v>1.059793138125191</v>
+        <v>1.036099409968878</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04576124396519</v>
+        <v>1.005734603162743</v>
       </c>
       <c r="D7">
-        <v>1.04831908113977</v>
+        <v>1.023134393526528</v>
       </c>
       <c r="E7">
-        <v>1.04338869946682</v>
+        <v>1.010483279944981</v>
       </c>
       <c r="F7">
-        <v>1.056989469404074</v>
+        <v>1.024564376700249</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036192770222227</v>
+        <v>1.043190312272809</v>
       </c>
       <c r="J7">
-        <v>1.050244562837297</v>
+        <v>1.02498670867594</v>
       </c>
       <c r="K7">
-        <v>1.050771604099502</v>
+        <v>1.032958489428281</v>
       </c>
       <c r="L7">
-        <v>1.045853435724151</v>
+        <v>1.020453846811728</v>
       </c>
       <c r="M7">
-        <v>1.059420811650039</v>
+        <v>1.034372197300092</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043772765054363</v>
+        <v>0.9959393201992266</v>
       </c>
       <c r="D8">
-        <v>1.046816342888007</v>
+        <v>1.015791096184314</v>
       </c>
       <c r="E8">
-        <v>1.041673133030759</v>
+        <v>1.002321565963691</v>
       </c>
       <c r="F8">
-        <v>1.055182501138211</v>
+        <v>1.015964242299058</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035797855204748</v>
+        <v>1.040680689167299</v>
       </c>
       <c r="J8">
-        <v>1.048723921447507</v>
+        <v>1.017665973473021</v>
       </c>
       <c r="K8">
-        <v>1.049517973595136</v>
+        <v>1.026761332478407</v>
       </c>
       <c r="L8">
-        <v>1.044388891197042</v>
+        <v>1.013470181729021</v>
       </c>
       <c r="M8">
-        <v>1.057861469891345</v>
+        <v>1.026932224149898</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040258430923222</v>
+        <v>0.9774496690884692</v>
       </c>
       <c r="D9">
-        <v>1.044157762431225</v>
+        <v>1.001959558256002</v>
       </c>
       <c r="E9">
-        <v>1.038642700955888</v>
+        <v>0.9869736576315505</v>
       </c>
       <c r="F9">
-        <v>1.051990485707187</v>
+        <v>0.9997926105265933</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035086870374437</v>
+        <v>1.035843083842335</v>
       </c>
       <c r="J9">
-        <v>1.046031198798408</v>
+        <v>1.003824663301611</v>
       </c>
       <c r="K9">
-        <v>1.047293956184707</v>
+        <v>1.015020922798168</v>
       </c>
       <c r="L9">
-        <v>1.041796681934694</v>
+        <v>1.000281673924159</v>
       </c>
       <c r="M9">
-        <v>1.05510176787364</v>
+        <v>1.012889053376637</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037908096796549</v>
+        <v>0.9641385931120917</v>
       </c>
       <c r="D10">
-        <v>1.042377985299029</v>
+        <v>0.9920331178263139</v>
       </c>
       <c r="E10">
-        <v>1.036617105066969</v>
+        <v>0.9759727374298808</v>
       </c>
       <c r="F10">
-        <v>1.049856805095536</v>
+        <v>0.9882027012319473</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034602631456029</v>
+        <v>1.032297464838354</v>
       </c>
       <c r="J10">
-        <v>1.044226867822962</v>
+        <v>0.9938509983455437</v>
       </c>
       <c r="K10">
-        <v>1.045800949793096</v>
+        <v>1.006547722249925</v>
       </c>
       <c r="L10">
-        <v>1.04006050024566</v>
+        <v>0.9907897993489286</v>
       </c>
       <c r="M10">
-        <v>1.053253614676645</v>
+        <v>1.002788277319754</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036888506212694</v>
+        <v>0.9580993708185722</v>
       </c>
       <c r="D11">
-        <v>1.041605504495641</v>
+        <v>0.9875397222633021</v>
       </c>
       <c r="E11">
-        <v>1.035738663799029</v>
+        <v>0.9709953718523332</v>
       </c>
       <c r="F11">
-        <v>1.048931473296448</v>
+        <v>0.9829594377046381</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034390496916137</v>
+        <v>1.030675281824793</v>
       </c>
       <c r="J11">
-        <v>1.043443319255452</v>
+        <v>0.9893254752769782</v>
       </c>
       <c r="K11">
-        <v>1.045151951151662</v>
+        <v>1.002700509919297</v>
       </c>
       <c r="L11">
-        <v>1.039306736441617</v>
+        <v>0.9864858161489475</v>
       </c>
       <c r="M11">
-        <v>1.052451290549655</v>
+        <v>0.9982100316130729</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036509493311695</v>
+        <v>0.9558105921760999</v>
       </c>
       <c r="D12">
-        <v>1.041318290781312</v>
+        <v>0.9858385980570781</v>
       </c>
       <c r="E12">
-        <v>1.035412162834609</v>
+        <v>0.9691113054279865</v>
       </c>
       <c r="F12">
-        <v>1.048587541471989</v>
+        <v>0.9809748351928599</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034311329702885</v>
+        <v>1.030058598941168</v>
       </c>
       <c r="J12">
-        <v>1.043151928106745</v>
+        <v>0.9876104563719817</v>
       </c>
       <c r="K12">
-        <v>1.044910500682838</v>
+        <v>1.001242231979495</v>
       </c>
       <c r="L12">
-        <v>1.039026450522923</v>
+        <v>0.9848552151503041</v>
       </c>
       <c r="M12">
-        <v>1.052152955579729</v>
+        <v>0.9964758352730051</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.036590806205341</v>
+        <v>0.9563036770495786</v>
       </c>
       <c r="D13">
-        <v>1.041379911857991</v>
+        <v>0.9862049948161035</v>
       </c>
       <c r="E13">
-        <v>1.035482207955182</v>
+        <v>0.9695170939503214</v>
       </c>
       <c r="F13">
-        <v>1.048661326191789</v>
+        <v>0.9814022715348445</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03432832816017</v>
+        <v>1.030191537867358</v>
       </c>
       <c r="J13">
-        <v>1.043214448275358</v>
+        <v>0.9879799260170212</v>
       </c>
       <c r="K13">
-        <v>1.044962310067075</v>
+        <v>1.001556404611193</v>
       </c>
       <c r="L13">
-        <v>1.039086586681659</v>
+        <v>0.9852064772706313</v>
       </c>
       <c r="M13">
-        <v>1.05221696384837</v>
+        <v>0.9968493991137298</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036857182888417</v>
+        <v>0.957911134852272</v>
       </c>
       <c r="D14">
-        <v>1.041581769064319</v>
+        <v>0.9873997784152283</v>
       </c>
       <c r="E14">
-        <v>1.035711679425209</v>
+        <v>0.9708403729802303</v>
       </c>
       <c r="F14">
-        <v>1.048903048361708</v>
+        <v>0.9827961654491787</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034383960509682</v>
+        <v>1.030624601646628</v>
       </c>
       <c r="J14">
-        <v>1.04341923987534</v>
+        <v>0.9891844242081863</v>
       </c>
       <c r="K14">
-        <v>1.045132000634342</v>
+        <v>1.002580580424393</v>
       </c>
       <c r="L14">
-        <v>1.039283574167228</v>
+        <v>0.9863516985010305</v>
       </c>
       <c r="M14">
-        <v>1.052426636572437</v>
+        <v>0.9980673866723042</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037021267447815</v>
+        <v>0.9588953734984517</v>
       </c>
       <c r="D15">
-        <v>1.041706102684561</v>
+        <v>0.9881315848406973</v>
       </c>
       <c r="E15">
-        <v>1.035853036506353</v>
+        <v>0.9716509173322057</v>
       </c>
       <c r="F15">
-        <v>1.04905195169026</v>
+        <v>0.9836499790368635</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034418188214209</v>
+        <v>1.030889519298427</v>
       </c>
       <c r="J15">
-        <v>1.043545372650118</v>
+        <v>0.989921949504981</v>
       </c>
       <c r="K15">
-        <v>1.045236501618964</v>
+        <v>1.003207653183769</v>
       </c>
       <c r="L15">
-        <v>1.03940490412691</v>
+        <v>0.9870529893489042</v>
       </c>
       <c r="M15">
-        <v>1.052555780785692</v>
+        <v>0.9988132789479762</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037975723276682</v>
+        <v>0.9645332509414318</v>
       </c>
       <c r="D16">
-        <v>1.0424292133597</v>
+        <v>0.9923269906906098</v>
       </c>
       <c r="E16">
-        <v>1.036675375414057</v>
+        <v>0.9762983057167646</v>
       </c>
       <c r="F16">
-        <v>1.049918185514573</v>
+        <v>0.988545676057058</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034616658211118</v>
+        <v>1.032403204211468</v>
       </c>
       <c r="J16">
-        <v>1.044278821156249</v>
+        <v>0.9941467404583108</v>
       </c>
       <c r="K16">
-        <v>1.045843968211426</v>
+        <v>1.006799089904777</v>
       </c>
       <c r="L16">
-        <v>1.040110482706685</v>
+        <v>0.9910711261824054</v>
       </c>
       <c r="M16">
-        <v>1.053306818311588</v>
+        <v>1.003087571984636</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038573918395484</v>
+        <v>0.9679932365959317</v>
       </c>
       <c r="D17">
-        <v>1.042882308832459</v>
+        <v>0.994904570414256</v>
       </c>
       <c r="E17">
-        <v>1.037190842099732</v>
+        <v>0.979154151635527</v>
       </c>
       <c r="F17">
-        <v>1.050461162291121</v>
+        <v>0.9915542792501656</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034740494256976</v>
+        <v>1.033328716022396</v>
       </c>
       <c r="J17">
-        <v>1.044738283969022</v>
+        <v>0.9967394901023287</v>
       </c>
       <c r="K17">
-        <v>1.046224338333319</v>
+        <v>1.009002534737762</v>
       </c>
       <c r="L17">
-        <v>1.040552537556155</v>
+        <v>0.993537830437894</v>
       </c>
       <c r="M17">
-        <v>1.053777367905091</v>
+        <v>1.005712030990584</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038922654671969</v>
+        <v>0.9699851213572087</v>
       </c>
       <c r="D18">
-        <v>1.043146416002676</v>
+        <v>0.9963894011004205</v>
       </c>
       <c r="E18">
-        <v>1.037491375791688</v>
+        <v>0.9807995117843299</v>
       </c>
       <c r="F18">
-        <v>1.050777733569847</v>
+        <v>0.9932877022903946</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034812488907735</v>
+        <v>1.033860245928315</v>
       </c>
       <c r="J18">
-        <v>1.045006063114694</v>
+        <v>0.998232057863408</v>
       </c>
       <c r="K18">
-        <v>1.046445959296409</v>
+        <v>1.010270750594678</v>
       </c>
       <c r="L18">
-        <v>1.040810189500827</v>
+        <v>0.9949581108566307</v>
       </c>
       <c r="M18">
-        <v>1.054051633038856</v>
+        <v>1.0072233134235</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039041534333226</v>
+        <v>0.9706599646063455</v>
       </c>
       <c r="D19">
-        <v>1.043236440082558</v>
+        <v>0.996892608134856</v>
       </c>
       <c r="E19">
-        <v>1.037593828283781</v>
+        <v>0.9813571637512248</v>
       </c>
       <c r="F19">
-        <v>1.050885653015753</v>
+        <v>0.993875209307939</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034836997115402</v>
+        <v>1.034040105505859</v>
       </c>
       <c r="J19">
-        <v>1.045097332148983</v>
+        <v>0.9987377202962926</v>
       </c>
       <c r="K19">
-        <v>1.046521485346587</v>
+        <v>1.010700362925206</v>
       </c>
       <c r="L19">
-        <v>1.040898009915098</v>
+        <v>0.9954393290256368</v>
       </c>
       <c r="M19">
-        <v>1.054145116886217</v>
+        <v>1.00773539265833</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038509756488727</v>
+        <v>0.9676247579847156</v>
       </c>
       <c r="D20">
-        <v>1.042833714196483</v>
+        <v>0.9946299660144967</v>
       </c>
       <c r="E20">
-        <v>1.037135550825975</v>
+        <v>0.9788498783237325</v>
       </c>
       <c r="F20">
-        <v>1.05040292033456</v>
+        <v>0.9912337248200506</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034727232331331</v>
+        <v>1.033230283754067</v>
       </c>
       <c r="J20">
-        <v>1.044689010527073</v>
+        <v>0.996463374446851</v>
       </c>
       <c r="K20">
-        <v>1.046183553339896</v>
+        <v>1.008767902831964</v>
       </c>
       <c r="L20">
-        <v>1.040505129072631</v>
+        <v>0.9932751094791636</v>
       </c>
       <c r="M20">
-        <v>1.053726902962927</v>
+        <v>1.005432490170061</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036778749716053</v>
+        <v>0.9574390721295217</v>
       </c>
       <c r="D21">
-        <v>1.041522334922031</v>
+        <v>0.9870488538878324</v>
       </c>
       <c r="E21">
-        <v>1.035644111613808</v>
+        <v>0.9704517005502094</v>
       </c>
       <c r="F21">
-        <v>1.048831873402676</v>
+        <v>0.9823867487432687</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034367588427152</v>
+        <v>1.030497474630927</v>
       </c>
       <c r="J21">
-        <v>1.043358943466767</v>
+        <v>0.9888306949378346</v>
       </c>
       <c r="K21">
-        <v>1.045082041620507</v>
+        <v>1.002279815198788</v>
       </c>
       <c r="L21">
-        <v>1.039225574717338</v>
+        <v>0.9860153644357937</v>
       </c>
       <c r="M21">
-        <v>1.052364901957234</v>
+        <v>0.9977096733878769</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035688705641418</v>
+        <v>0.9507689230597928</v>
       </c>
       <c r="D22">
-        <v>1.040696196176043</v>
+        <v>0.9820950700949828</v>
       </c>
       <c r="E22">
-        <v>1.034705173374244</v>
+        <v>0.9649656102472676</v>
       </c>
       <c r="F22">
-        <v>1.047842803657764</v>
+        <v>0.9766081604358737</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034139318521245</v>
+        <v>1.028696842101658</v>
       </c>
       <c r="J22">
-        <v>1.042520670499307</v>
+        <v>0.9838330141570572</v>
       </c>
       <c r="K22">
-        <v>1.044387256137385</v>
+        <v>0.9980297720473086</v>
       </c>
       <c r="L22">
-        <v>1.038419303394552</v>
+        <v>0.9812645883537756</v>
       </c>
       <c r="M22">
-        <v>1.051506726034815</v>
+        <v>0.9926577066635247</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036266721994798</v>
+        <v>0.9543316573424891</v>
       </c>
       <c r="D23">
-        <v>1.041134303662949</v>
+        <v>0.9847399333003545</v>
       </c>
       <c r="E23">
-        <v>1.035203039362897</v>
+        <v>0.9678945562156462</v>
       </c>
       <c r="F23">
-        <v>1.048367252871477</v>
+        <v>0.9796931941285921</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034260532958473</v>
+        <v>1.029659601279137</v>
       </c>
       <c r="J23">
-        <v>1.042965247311842</v>
+        <v>0.986502313726926</v>
       </c>
       <c r="K23">
-        <v>1.044755787413525</v>
+        <v>1.0002998994868</v>
       </c>
       <c r="L23">
-        <v>1.038846892419302</v>
+        <v>0.9838017515093936</v>
       </c>
       <c r="M23">
-        <v>1.051961837092159</v>
+        <v>0.9953555355779409</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03853874905152</v>
+        <v>0.9677913384710167</v>
       </c>
       <c r="D24">
-        <v>1.0428556725641</v>
+        <v>0.9947541052848592</v>
       </c>
       <c r="E24">
-        <v>1.037160534972424</v>
+        <v>0.978987429167621</v>
       </c>
       <c r="F24">
-        <v>1.050429237794106</v>
+        <v>0.9913786355975419</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03473322555654</v>
+        <v>1.033274786645894</v>
       </c>
       <c r="J24">
-        <v>1.044711275747579</v>
+        <v>0.9965882000074159</v>
       </c>
       <c r="K24">
-        <v>1.046201983072373</v>
+        <v>1.008873975292999</v>
       </c>
       <c r="L24">
-        <v>1.040526551516601</v>
+        <v>0.9933938787569662</v>
       </c>
       <c r="M24">
-        <v>1.05374970651162</v>
+        <v>1.005558862742409</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.041168248390039</v>
+        <v>0.9823904905357315</v>
       </c>
       <c r="D25">
-        <v>1.044846350533813</v>
+        <v>1.005651172979315</v>
       </c>
       <c r="E25">
-        <v>1.039427050552589</v>
+        <v>0.9910673909832368</v>
       </c>
       <c r="F25">
-        <v>1.052816671496796</v>
+        <v>1.004105884349798</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03527247602607</v>
+        <v>1.037146901086737</v>
       </c>
       <c r="J25">
-        <v>1.046728925872744</v>
+        <v>1.007525373565798</v>
       </c>
       <c r="K25">
-        <v>1.047870718495767</v>
+        <v>1.018162390644966</v>
       </c>
       <c r="L25">
-        <v>1.042468224506277</v>
+        <v>1.003805975194317</v>
       </c>
       <c r="M25">
-        <v>1.055816665287792</v>
+        <v>1.016640794380325</v>
       </c>
     </row>
   </sheetData>
